--- a/provider.model.standard.excel/src/main/resources/defaultInputData/MavenProjectWithJavaDomainModel_Testdaten.xlsx
+++ b/provider.model.standard.excel/src/main/resources/defaultInputData/MavenProjectWithJavaDomainModel_Testdaten.xlsx
@@ -149,8 +149,149 @@
     <t>* Note, that attribute names must match exactly the ones of the model file of the StandardModelProvider. If not matching, the excel data do not enrich existing attributes of the standard model but add new attributes!</t>
   </si>
   <si>
+    <t>The content of these two fields must match exactly. If not matching, the corresponding person would not have a valid address reference.</t>
+  </si>
+  <si>
+    <t>Address1, Address3</t>
+  </si>
+  <si>
+    <t>addresses</t>
+  </si>
+  <si>
+    <t>Contact1</t>
+  </si>
+  <si>
+    <t>Contact2</t>
+  </si>
+  <si>
+    <t>Contact4</t>
+  </si>
+  <si>
+    <t>Contact3</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>0151/100234</t>
+  </si>
+  <si>
+    <t>0178/443367</t>
+  </si>
+  <si>
+    <t>0182/464748</t>
+  </si>
+  <si>
+    <t>0182/929392</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>tim.mueller@gmx.de</t>
+  </si>
+  <si>
+    <t>gustavsons@itsm.com</t>
+  </si>
+  <si>
+    <t>maggys@uni.se</t>
+  </si>
+  <si>
+    <t>alice.wonder@nasa.com</t>
+  </si>
+  <si>
+    <t>Office1</t>
+  </si>
+  <si>
+    <t>Office2</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>HeadQuarter</t>
+  </si>
+  <si>
+    <t>outpost</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>AddressOffice1</t>
+  </si>
+  <si>
+    <t>AddressOffice2</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>Member1, Member2, Member4, Member5</t>
+  </si>
+  <si>
+    <t>Member2, Member4</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>CHIEF</t>
+  </si>
+  <si>
+    <t>GUEST</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>offices</t>
+  </si>
+  <si>
+    <t>Office1, Office2</t>
+  </si>
+  <si>
+    <t>Hafenstr. 12</t>
+  </si>
+  <si>
+    <t>Köpmangatan 5</t>
+  </si>
+  <si>
+    <t>Wenzingerstraße  24</t>
+  </si>
+  <si>
+    <t>Köpmangatan 4</t>
+  </si>
+  <si>
+    <t>Königsallee 101a</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
     <r>
-      <t>By default, these cells represent the attribute names. However, in this example the matrix is rotated, so that the columns do represent the attributes and these cells represent the names of metainfo elements.</t>
+      <t>By default, these lilac cells represent the attribute names. However, in this example the matrix is rotated, so that the green first row  do represent the attributes here and lilac cells the names of metainfo elements of this attributes.</t>
     </r>
     <r>
       <rPr>
@@ -165,11 +306,8 @@
     </r>
   </si>
   <si>
-    <t>The content of these two fields must match exactly. If not matching, the corresponding person would not have a valid address reference.</t>
-  </si>
-  <si>
     <r>
-      <t>By default, these cells represent the names of the attribute MetaInfos. However, in this example the matrix is rotated (see 'excel.properties' ).</t>
+      <t>By default, these green cells represent the names of metainfo elements of the attributes. However, in this example the matrix is rotated (see rotation property in the file '_excel.properties' ).</t>
     </r>
     <r>
       <rPr>
@@ -182,144 +320,6 @@
       </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <t>Address1, Address3</t>
-  </si>
-  <si>
-    <t>addresses</t>
-  </si>
-  <si>
-    <t>Contact1</t>
-  </si>
-  <si>
-    <t>Contact2</t>
-  </si>
-  <si>
-    <t>Contact4</t>
-  </si>
-  <si>
-    <t>Contact3</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>0151/100234</t>
-  </si>
-  <si>
-    <t>0178/443367</t>
-  </si>
-  <si>
-    <t>0182/464748</t>
-  </si>
-  <si>
-    <t>0182/929392</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>tim.mueller@gmx.de</t>
-  </si>
-  <si>
-    <t>gustavsons@itsm.com</t>
-  </si>
-  <si>
-    <t>maggys@uni.se</t>
-  </si>
-  <si>
-    <t>alice.wonder@nasa.com</t>
-  </si>
-  <si>
-    <t>Office1</t>
-  </si>
-  <si>
-    <t>Office2</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>HeadQuarter</t>
-  </si>
-  <si>
-    <t>outpost</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>HEAD</t>
-  </si>
-  <si>
-    <t>BRANCH</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>AddressOffice1</t>
-  </si>
-  <si>
-    <t>AddressOffice2</t>
-  </si>
-  <si>
-    <t>members</t>
-  </si>
-  <si>
-    <t>Member1, Member2, Member4, Member5</t>
-  </si>
-  <si>
-    <t>Member2, Member4</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>CHIEF</t>
-  </si>
-  <si>
-    <t>GUEST</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
-    <t>offices</t>
-  </si>
-  <si>
-    <t>Office1, Office2</t>
-  </si>
-  <si>
-    <t>Hafenstr. 12</t>
-  </si>
-  <si>
-    <t>Köpmangatan 5</t>
-  </si>
-  <si>
-    <t>Wenzingerstraße  24</t>
-  </si>
-  <si>
-    <t>Köpmangatan 4</t>
-  </si>
-  <si>
-    <t>Königsallee 101a</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>contact</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
   <dimension ref="B2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,10 +866,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2"/>
       <c r="S3"/>
@@ -889,10 +889,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S4"/>
       <c r="T4" s="25"/>
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>28</v>
@@ -933,7 +933,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10"/>
       <c r="S6"/>
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>39</v>
@@ -981,17 +981,17 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1054,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1073,7 +1073,7 @@
         <v>41</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1092,14 +1092,14 @@
         <v>42</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>22</v>
@@ -1111,14 +1111,14 @@
         <v>25</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>23</v>
@@ -1161,69 +1161,69 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1261,13 +1261,13 @@
         <v>36</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1278,13 +1278,13 @@
         <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>321</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1312,13 +1312,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1329,13 +1329,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,63 +1346,63 @@
         <v>47</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
